--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Ccr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,51 +534,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2972863333333334</v>
+        <v>0.03814</v>
       </c>
       <c r="H2">
-        <v>0.8918590000000001</v>
+        <v>0.11442</v>
       </c>
       <c r="I2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="J2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.006600000000000001</v>
+        <v>4.769389</v>
       </c>
       <c r="N2">
-        <v>0.0198</v>
+        <v>14.308167</v>
       </c>
       <c r="O2">
-        <v>0.001099924410750217</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.001099924410750217</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0019620898</v>
+        <v>0.18190449646</v>
       </c>
       <c r="R2">
-        <v>0.0176588082</v>
+        <v>1.63714046814</v>
       </c>
       <c r="S2">
-        <v>5.772673689584195E-06</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="T2">
-        <v>5.772673689584193E-06</v>
+        <v>0.0004360684493923871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,51 +596,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2972863333333334</v>
+        <v>0.2972863333333333</v>
       </c>
       <c r="H3">
-        <v>0.8918590000000001</v>
+        <v>0.891859</v>
       </c>
       <c r="I3">
-        <v>0.005248245818680278</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="J3">
-        <v>0.005248245818680278</v>
+        <v>0.003398982443686811</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.06755966666666667</v>
+        <v>4.769389</v>
       </c>
       <c r="N3">
-        <v>0.202679</v>
+        <v>14.308167</v>
       </c>
       <c r="O3">
-        <v>0.0112591706892143</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.0112591706892143</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.02008456558455556</v>
+        <v>1.417874168050333</v>
       </c>
       <c r="R3">
-        <v>0.180761090261</v>
+        <v>12.760867512453</v>
       </c>
       <c r="S3">
-        <v>5.90908954914765E-05</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="T3">
-        <v>5.90908954914765E-05</v>
+        <v>0.003398982443686811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -655,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2972863333333334</v>
+        <v>87.12790666666666</v>
       </c>
       <c r="H4">
-        <v>0.8918590000000001</v>
+        <v>261.38372</v>
       </c>
       <c r="I4">
-        <v>0.005248245818680278</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="J4">
-        <v>0.005248245818680278</v>
+        <v>0.9961649491069208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,400 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.926252666666667</v>
+        <v>4.769389</v>
       </c>
       <c r="N4">
-        <v>17.778758</v>
+        <v>14.308167</v>
       </c>
       <c r="O4">
-        <v>0.9876409049000355</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9876409049000355</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.761793925680222</v>
+        <v>415.5468796490267</v>
       </c>
       <c r="R4">
-        <v>15.856145331122</v>
+        <v>3739.92191684124</v>
       </c>
       <c r="S4">
-        <v>0.005183382249499218</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="T4">
-        <v>0.005183382249499218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>1.418502333333333</v>
-      </c>
-      <c r="H5">
-        <v>4.255507</v>
-      </c>
-      <c r="I5">
-        <v>0.0250420154072725</v>
-      </c>
-      <c r="J5">
-        <v>0.0250420154072725</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.006600000000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.0198</v>
-      </c>
-      <c r="O5">
-        <v>0.001099924410750217</v>
-      </c>
-      <c r="P5">
-        <v>0.001099924410750217</v>
-      </c>
-      <c r="Q5">
-        <v>0.009362115400000001</v>
-      </c>
-      <c r="R5">
-        <v>0.0842590386</v>
-      </c>
-      <c r="S5">
-        <v>2.754432404084206E-05</v>
-      </c>
-      <c r="T5">
-        <v>2.754432404084206E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>1.418502333333333</v>
-      </c>
-      <c r="H6">
-        <v>4.255507</v>
-      </c>
-      <c r="I6">
-        <v>0.0250420154072725</v>
-      </c>
-      <c r="J6">
-        <v>0.0250420154072725</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.06755966666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.202679</v>
-      </c>
-      <c r="O6">
-        <v>0.0112591706892143</v>
-      </c>
-      <c r="P6">
-        <v>0.0112591706892143</v>
-      </c>
-      <c r="Q6">
-        <v>0.09583354480588889</v>
-      </c>
-      <c r="R6">
-        <v>0.8625019032529999</v>
-      </c>
-      <c r="S6">
-        <v>0.0002819523258724156</v>
-      </c>
-      <c r="T6">
-        <v>0.0002819523258724156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>1.418502333333333</v>
-      </c>
-      <c r="H7">
-        <v>4.255507</v>
-      </c>
-      <c r="I7">
-        <v>0.0250420154072725</v>
-      </c>
-      <c r="J7">
-        <v>0.0250420154072725</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.926252666666667</v>
-      </c>
-      <c r="N7">
-        <v>17.778758</v>
-      </c>
-      <c r="O7">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="P7">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="Q7">
-        <v>8.406403235589556</v>
-      </c>
-      <c r="R7">
-        <v>75.657629120306</v>
-      </c>
-      <c r="S7">
-        <v>0.02473251875735925</v>
-      </c>
-      <c r="T7">
-        <v>0.02473251875735925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>54.92910633333333</v>
-      </c>
-      <c r="H8">
-        <v>164.787319</v>
-      </c>
-      <c r="I8">
-        <v>0.9697097387740472</v>
-      </c>
-      <c r="J8">
-        <v>0.9697097387740472</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.006600000000000001</v>
-      </c>
-      <c r="N8">
-        <v>0.0198</v>
-      </c>
-      <c r="O8">
-        <v>0.001099924410750217</v>
-      </c>
-      <c r="P8">
-        <v>0.001099924410750217</v>
-      </c>
-      <c r="Q8">
-        <v>0.3625321018</v>
-      </c>
-      <c r="R8">
-        <v>3.2627889162</v>
-      </c>
-      <c r="S8">
-        <v>0.001066607413019791</v>
-      </c>
-      <c r="T8">
-        <v>0.00106660741301979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>54.92910633333333</v>
-      </c>
-      <c r="H9">
-        <v>164.787319</v>
-      </c>
-      <c r="I9">
-        <v>0.9697097387740472</v>
-      </c>
-      <c r="J9">
-        <v>0.9697097387740472</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.06755966666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.202679</v>
-      </c>
-      <c r="O9">
-        <v>0.0112591706892143</v>
-      </c>
-      <c r="P9">
-        <v>0.0112591706892143</v>
-      </c>
-      <c r="Q9">
-        <v>3.710992114177889</v>
-      </c>
-      <c r="R9">
-        <v>33.398929027601</v>
-      </c>
-      <c r="S9">
-        <v>0.01091812746785041</v>
-      </c>
-      <c r="T9">
-        <v>0.01091812746785041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>54.92910633333333</v>
-      </c>
-      <c r="H10">
-        <v>164.787319</v>
-      </c>
-      <c r="I10">
-        <v>0.9697097387740472</v>
-      </c>
-      <c r="J10">
-        <v>0.9697097387740472</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.926252666666667</v>
-      </c>
-      <c r="N10">
-        <v>17.778758</v>
-      </c>
-      <c r="O10">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="P10">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="Q10">
-        <v>325.5237628855335</v>
-      </c>
-      <c r="R10">
-        <v>2929.713865969802</v>
-      </c>
-      <c r="S10">
-        <v>0.9577250038931771</v>
-      </c>
-      <c r="T10">
-        <v>0.9577250038931771</v>
+        <v>0.9961649491069208</v>
       </c>
     </row>
   </sheetData>
